--- a/public/templates/template_progress.xlsx
+++ b/public/templates/template_progress.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\INTEL\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BB68355-B31B-4552-BE96-5552C24C8B3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F19E24C-E351-4B3A-A3BE-3A2EB5B9B1CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="rab_pekerjaan" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>P1</t>
   </si>
@@ -88,27 +99,12 @@
     <t>Papan Informasi K3.</t>
   </si>
   <si>
-    <t>P2.2.1</t>
-  </si>
-  <si>
     <t>BPJS Ketenagakerjaan &amp; Kesehatan Kerja</t>
   </si>
   <si>
-    <t>P2.2.2</t>
-  </si>
-  <si>
     <t>KEP-196/MEN/1999 (Tenaga Harian Proyek)</t>
   </si>
   <si>
-    <t>minggu</t>
-  </si>
-  <si>
-    <t>bobot_mingguan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bobot_total </t>
-  </si>
-  <si>
     <t>jumlah_harga</t>
   </si>
   <si>
@@ -121,9 +117,6 @@
     <t>no</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>jenis_pekerjaan_utama</t>
   </si>
   <si>
@@ -137,13 +130,60 @@
   </si>
   <si>
     <t>kode_pekerjaan</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>M4</t>
+  </si>
+  <si>
+    <t>P2.1</t>
+  </si>
+  <si>
+    <t>P2.1.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bobot(%) </t>
+  </si>
+  <si>
+    <t>volume_realisasi</t>
+  </si>
+  <si>
+    <t>Jumlah Sub. Total Pekerjaan Persiapan</t>
+  </si>
+  <si>
+    <t>Jumlah Sub. Total Pekerjaan SMKK</t>
+  </si>
+  <si>
+    <t>JUMLAH:</t>
+  </si>
+  <si>
+    <t>JUMLAH UPAH + BAHAN…............................</t>
+  </si>
+  <si>
+    <t>PPN 11%......................................................</t>
+  </si>
+  <si>
+    <t>TOTAL JUMLAH:…........................................</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,16 +202,61 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,30 +286,144 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
       <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Accent1" xfId="2" builtinId="29"/>
+    <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -525,328 +724,484 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="14.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.08984375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6328125" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="8">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8">
+        <v>35000</v>
+      </c>
+      <c r="I3" s="8">
+        <f>F3+H3</f>
+        <v>35100</v>
+      </c>
+      <c r="J3" s="3"/>
+      <c r="K3" s="8">
+        <v>67.86</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0.02</v>
+      </c>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="8">
+        <v>130000000</v>
+      </c>
+      <c r="I4" s="8">
+        <f t="shared" ref="I4:I12" si="0">F4+H4</f>
+        <v>130000100</v>
+      </c>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3">
+        <v>50</v>
+      </c>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5">
+        <v>69.284064665127019</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="8">
+        <v>130000000</v>
+      </c>
+      <c r="I5" s="8">
+        <f t="shared" si="0"/>
+        <v>130000069.28406467</v>
+      </c>
+      <c r="J5" s="3"/>
+      <c r="K5" s="22">
+        <v>20</v>
+      </c>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="17">
+        <f>SUM(I3:I5)</f>
+        <v>260035269.28406465</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3">
+        <v>67.86</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="8">
+        <v>35000</v>
+      </c>
+      <c r="I8" s="8">
+        <f t="shared" si="0"/>
+        <v>35067.86</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="8">
+        <v>130000000</v>
+      </c>
+      <c r="I9" s="8">
+        <f t="shared" si="0"/>
+        <v>130000001</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="8">
+        <v>130000000</v>
+      </c>
+      <c r="I10" s="8">
+        <f t="shared" si="0"/>
+        <v>130000001</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="3">
+        <v>67.86</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="8">
+        <v>35000</v>
+      </c>
+      <c r="I11" s="8">
+        <f t="shared" si="0"/>
+        <v>35067.86</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="3">
         <v>1</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3">
-        <v>67.86</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3">
-        <v>35000</v>
-      </c>
-      <c r="J3">
-        <v>2375121</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="G12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I4">
+      <c r="H12" s="8">
         <v>130000000</v>
       </c>
-      <c r="J4">
-        <v>130000000</v>
-      </c>
-      <c r="K4">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5">
-        <v>130000000</v>
-      </c>
-      <c r="J5">
-        <v>130000000</v>
-      </c>
-      <c r="K5">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7">
-        <v>67.86</v>
-      </c>
-      <c r="H7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I7">
-        <v>35000</v>
-      </c>
-      <c r="J7">
-        <v>2375121</v>
-      </c>
-      <c r="K7">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8">
-        <v>130000000</v>
-      </c>
-      <c r="J8">
-        <v>130000000</v>
-      </c>
-      <c r="K8">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I9">
-        <v>130000000</v>
-      </c>
-      <c r="J9">
-        <v>130000000</v>
-      </c>
-      <c r="K9">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="2">
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10">
-        <v>67.86</v>
-      </c>
-      <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10">
-        <v>35000</v>
-      </c>
-      <c r="J10">
-        <v>2375121</v>
-      </c>
-      <c r="K10">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="2">
-        <v>5</v>
-      </c>
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11" t="s">
-        <v>10</v>
-      </c>
-      <c r="I11">
-        <v>130000000</v>
-      </c>
-      <c r="J11">
-        <v>130000000</v>
-      </c>
-      <c r="K11">
-        <v>1.98</v>
+      <c r="I12" s="8">
+        <f t="shared" si="0"/>
+        <v>130000001</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17">
+        <f>SUM(I8:I12)</f>
+        <v>390070138.72000003</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="19">
+        <f>I6+I13</f>
+        <v>650105408.00406468</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
